--- a/natmiOut/OldD0/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.1566115522585</v>
+        <v>99.883077</v>
       </c>
       <c r="H2">
-        <v>88.1566115522585</v>
+        <v>299.649231</v>
       </c>
       <c r="I2">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J2">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>1506.255365055362</v>
+        <v>2107.467135046616</v>
       </c>
       <c r="R2">
-        <v>1506.255365055362</v>
+        <v>18967.20421541954</v>
       </c>
       <c r="S2">
-        <v>0.091205049099712</v>
+        <v>0.1142850895878393</v>
       </c>
       <c r="T2">
-        <v>0.091205049099712</v>
+        <v>0.1142850895878394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.1566115522585</v>
+        <v>99.883077</v>
       </c>
       <c r="H3">
-        <v>88.1566115522585</v>
+        <v>299.649231</v>
       </c>
       <c r="I3">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J3">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>3140.377791803099</v>
+        <v>3577.755650556367</v>
       </c>
       <c r="R3">
-        <v>3140.377791803099</v>
+        <v>32199.8008550073</v>
       </c>
       <c r="S3">
-        <v>0.1901525580176237</v>
+        <v>0.1940168452677619</v>
       </c>
       <c r="T3">
-        <v>0.1901525580176237</v>
+        <v>0.1940168452677619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.1566115522585</v>
+        <v>99.883077</v>
       </c>
       <c r="H4">
-        <v>88.1566115522585</v>
+        <v>299.649231</v>
       </c>
       <c r="I4">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J4">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>1347.668586646746</v>
+        <v>1538.96815254931</v>
       </c>
       <c r="R4">
-        <v>1347.668586646746</v>
+        <v>13850.71337294379</v>
       </c>
       <c r="S4">
-        <v>0.08160248419147591</v>
+        <v>0.08345615941623644</v>
       </c>
       <c r="T4">
-        <v>0.08160248419147591</v>
+        <v>0.08345615941623646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.796953426759</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H5">
-        <v>123.796953426759</v>
+        <v>372.048424</v>
       </c>
       <c r="I5">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J5">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>2115.21089562326</v>
+        <v>2616.658896834909</v>
       </c>
       <c r="R5">
-        <v>2115.21089562326</v>
+        <v>23549.93007151418</v>
       </c>
       <c r="S5">
-        <v>0.1280778266867614</v>
+        <v>0.1418978694721043</v>
       </c>
       <c r="T5">
-        <v>0.1280778266867614</v>
+        <v>0.1418978694721044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.796953426759</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H6">
-        <v>123.796953426759</v>
+        <v>372.048424</v>
       </c>
       <c r="I6">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J6">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>4409.983509901777</v>
+        <v>4442.188444149857</v>
       </c>
       <c r="R6">
-        <v>4409.983509901777</v>
+        <v>39979.69599734872</v>
       </c>
       <c r="S6">
-        <v>0.2670282688319113</v>
+        <v>0.2408938653719511</v>
       </c>
       <c r="T6">
-        <v>0.2670282688319113</v>
+        <v>0.2408938653719512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.796953426759</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H7">
-        <v>123.796953426759</v>
+        <v>372.048424</v>
       </c>
       <c r="I7">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J7">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>1892.509958336065</v>
+        <v>1910.803087434462</v>
       </c>
       <c r="R7">
-        <v>1892.509958336065</v>
+        <v>17197.22778691016</v>
       </c>
       <c r="S7">
-        <v>0.1145930946877594</v>
+        <v>0.1036202645349139</v>
       </c>
       <c r="T7">
-        <v>0.1145930946877594</v>
+        <v>0.1036202645349139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.9288170326555</v>
+        <v>31.06188766666667</v>
       </c>
       <c r="H8">
-        <v>30.9288170326555</v>
+        <v>93.18566300000001</v>
       </c>
       <c r="I8">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="J8">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>528.453802499394</v>
+        <v>655.3853703366569</v>
       </c>
       <c r="R8">
-        <v>528.453802499394</v>
+        <v>5898.468333029913</v>
       </c>
       <c r="S8">
-        <v>0.03199832918245921</v>
+        <v>0.03554066135500012</v>
       </c>
       <c r="T8">
-        <v>0.03199832918245921</v>
+        <v>0.03554066135500013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.9288170326555</v>
+        <v>31.06188766666667</v>
       </c>
       <c r="H9">
-        <v>30.9288170326555</v>
+        <v>93.18566300000001</v>
       </c>
       <c r="I9">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="J9">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>1101.768414482628</v>
+        <v>1112.619349085169</v>
       </c>
       <c r="R9">
-        <v>1101.768414482628</v>
+        <v>10013.57414176652</v>
       </c>
       <c r="S9">
-        <v>0.06671301870231448</v>
+        <v>0.06033584100686314</v>
       </c>
       <c r="T9">
-        <v>0.06671301870231448</v>
+        <v>0.06033584100686316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.9288170326555</v>
+        <v>31.06188766666667</v>
       </c>
       <c r="H10">
-        <v>30.9288170326555</v>
+        <v>93.18566300000001</v>
       </c>
       <c r="I10">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="J10">
-        <v>0.1273407184847563</v>
+        <v>0.121829906349193</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>472.8153045259235</v>
+        <v>478.5921430620745</v>
       </c>
       <c r="R10">
-        <v>472.8153045259235</v>
+        <v>4307.32928755867</v>
       </c>
       <c r="S10">
-        <v>0.02862937059998266</v>
+        <v>0.02595340398732972</v>
       </c>
       <c r="T10">
-        <v>0.02862937059998266</v>
+        <v>0.02595340398732973</v>
       </c>
     </row>
   </sheetData>
